--- a/Code/Results/Cases/Case_4_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027734238954841</v>
+        <v>1.056882949518213</v>
       </c>
       <c r="D2">
-        <v>1.045465868098437</v>
+        <v>1.062984988745737</v>
       </c>
       <c r="E2">
-        <v>1.035734301401726</v>
+        <v>1.060571346374045</v>
       </c>
       <c r="F2">
-        <v>1.046569761779765</v>
+        <v>1.070800210076821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060706296504964</v>
+        <v>1.05257268618011</v>
       </c>
       <c r="J2">
-        <v>1.049115925377561</v>
+        <v>1.061882265411271</v>
       </c>
       <c r="K2">
-        <v>1.056326147347086</v>
+        <v>1.065704854516345</v>
       </c>
       <c r="L2">
-        <v>1.046717274825131</v>
+        <v>1.063297763419177</v>
       </c>
       <c r="M2">
-        <v>1.057416302812354</v>
+        <v>1.073499082374265</v>
       </c>
       <c r="N2">
-        <v>1.018196267857398</v>
+        <v>1.024126665081736</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.034091715431016</v>
+        <v>1.058146015546485</v>
       </c>
       <c r="D3">
-        <v>1.050701131876465</v>
+        <v>1.064038772042396</v>
       </c>
       <c r="E3">
-        <v>1.041607911026078</v>
+        <v>1.061785088383639</v>
       </c>
       <c r="F3">
-        <v>1.05255804199215</v>
+        <v>1.072042952165762</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063466895241386</v>
+        <v>1.053033773554781</v>
       </c>
       <c r="J3">
-        <v>1.053694263581914</v>
+        <v>1.062796071898278</v>
       </c>
       <c r="K3">
-        <v>1.060723916836898</v>
+        <v>1.066572960422947</v>
       </c>
       <c r="L3">
-        <v>1.051734713709716</v>
+        <v>1.064324949209973</v>
       </c>
       <c r="M3">
-        <v>1.062559857964678</v>
+        <v>1.074557201794975</v>
       </c>
       <c r="N3">
-        <v>1.019925646736775</v>
+        <v>1.024456097618107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038095947804063</v>
+        <v>1.058962553132144</v>
       </c>
       <c r="D4">
-        <v>1.054001189811864</v>
+        <v>1.064719982682444</v>
       </c>
       <c r="E4">
-        <v>1.045312268313243</v>
+        <v>1.062570045358446</v>
       </c>
       <c r="F4">
-        <v>1.056335923445339</v>
+        <v>1.072846797705581</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065194242987933</v>
+        <v>1.053330450835493</v>
       </c>
       <c r="J4">
-        <v>1.056572925588919</v>
+        <v>1.063386098300243</v>
       </c>
       <c r="K4">
-        <v>1.063488789592439</v>
+        <v>1.067133423236317</v>
       </c>
       <c r="L4">
-        <v>1.054892923757865</v>
+        <v>1.064988623400094</v>
       </c>
       <c r="M4">
-        <v>1.065798838104166</v>
+        <v>1.075241018051614</v>
       </c>
       <c r="N4">
-        <v>1.02101029051073</v>
+        <v>1.024668250918759</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039754381003338</v>
+        <v>1.059305649172304</v>
       </c>
       <c r="D5">
-        <v>1.055368544974398</v>
+        <v>1.065006208325222</v>
       </c>
       <c r="E5">
-        <v>1.046847626290462</v>
+        <v>1.062899944524994</v>
       </c>
       <c r="F5">
-        <v>1.057902038793048</v>
+        <v>1.073184667163079</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065906879442432</v>
+        <v>1.053454773765741</v>
       </c>
       <c r="J5">
-        <v>1.057763940431779</v>
+        <v>1.063633844222782</v>
       </c>
       <c r="K5">
-        <v>1.064632655796623</v>
+        <v>1.067368742265766</v>
       </c>
       <c r="L5">
-        <v>1.056200432604283</v>
+        <v>1.065267398958143</v>
       </c>
       <c r="M5">
-        <v>1.067140114087468</v>
+        <v>1.075528291438865</v>
       </c>
       <c r="N5">
-        <v>1.021458370598828</v>
+        <v>1.024757198699166</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.040031411464934</v>
+        <v>1.05936324626201</v>
       </c>
       <c r="D6">
-        <v>1.055596984434277</v>
+        <v>1.065054257824256</v>
       </c>
       <c r="E6">
-        <v>1.047104162586186</v>
+        <v>1.06295533045096</v>
       </c>
       <c r="F6">
-        <v>1.058163730729857</v>
+        <v>1.073241393066767</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066025756068407</v>
+        <v>1.053475624702616</v>
       </c>
       <c r="J6">
-        <v>1.057962817489424</v>
+        <v>1.063675424257891</v>
       </c>
       <c r="K6">
-        <v>1.064823655591979</v>
+        <v>1.067408235860758</v>
       </c>
       <c r="L6">
-        <v>1.056418811136653</v>
+        <v>1.065314193004077</v>
       </c>
       <c r="M6">
-        <v>1.067364151531491</v>
+        <v>1.075576514071718</v>
       </c>
       <c r="N6">
-        <v>1.021533150785973</v>
+        <v>1.024772119283664</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038118204285351</v>
+        <v>1.058967138287039</v>
       </c>
       <c r="D7">
-        <v>1.054019537800881</v>
+        <v>1.064723807851105</v>
       </c>
       <c r="E7">
-        <v>1.045332868717709</v>
+        <v>1.062574453864064</v>
       </c>
       <c r="F7">
-        <v>1.056356935417052</v>
+        <v>1.07285131259461</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065203817750332</v>
+        <v>1.053332113615463</v>
       </c>
       <c r="J7">
-        <v>1.056588914194055</v>
+        <v>1.06338940987398</v>
       </c>
       <c r="K7">
-        <v>1.063504145543616</v>
+        <v>1.067136568755126</v>
       </c>
       <c r="L7">
-        <v>1.05491047291395</v>
+        <v>1.064992349325526</v>
       </c>
       <c r="M7">
-        <v>1.065816839184812</v>
+        <v>1.075244857407224</v>
       </c>
       <c r="N7">
-        <v>1.021016308421294</v>
+        <v>1.024669440391265</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C8">
-        <v>1.029906236458268</v>
+        <v>1.057309966019477</v>
       </c>
       <c r="D8">
-        <v>1.04725386898311</v>
+        <v>1.063341257189803</v>
       </c>
       <c r="E8">
-        <v>1.037739928504414</v>
+        <v>1.0609816237616</v>
       </c>
       <c r="F8">
-        <v>1.048614288050361</v>
+        <v>1.071220262562593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06165181531606</v>
+        <v>1.052728860850925</v>
       </c>
       <c r="J8">
-        <v>1.050681112310163</v>
+        <v>1.062191354401369</v>
       </c>
       <c r="K8">
-        <v>1.057829652264376</v>
+        <v>1.065998497049375</v>
       </c>
       <c r="L8">
-        <v>1.048431848755483</v>
+        <v>1.063645110812452</v>
       </c>
       <c r="M8">
-        <v>1.05917367841359</v>
+        <v>1.073856857828595</v>
       </c>
       <c r="N8">
-        <v>1.018788042113119</v>
+        <v>1.024238208229824</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.014535315064593</v>
+        <v>1.054383918583716</v>
       </c>
       <c r="D9">
-        <v>1.034614745191348</v>
+        <v>1.060899894072918</v>
       </c>
       <c r="E9">
-        <v>1.023569587924628</v>
+        <v>1.058171553208824</v>
       </c>
       <c r="F9">
-        <v>1.034174520776311</v>
+        <v>1.068343792060776</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054913356329401</v>
+        <v>1.051652949551294</v>
       </c>
       <c r="J9">
-        <v>1.039585032266054</v>
+        <v>1.060070418267762</v>
       </c>
       <c r="K9">
-        <v>1.047170120852606</v>
+        <v>1.063983328817272</v>
       </c>
       <c r="L9">
-        <v>1.036291498463651</v>
+        <v>1.061263461292778</v>
       </c>
       <c r="M9">
-        <v>1.046736447425179</v>
+        <v>1.071404348657589</v>
       </c>
       <c r="N9">
-        <v>1.014582281411649</v>
+        <v>1.023470542761449</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003587128466544</v>
+        <v>1.052429043714747</v>
       </c>
       <c r="D10">
-        <v>1.025634212355791</v>
+        <v>1.059268731988833</v>
       </c>
       <c r="E10">
-        <v>1.013508922644815</v>
+        <v>1.056295783883554</v>
       </c>
       <c r="F10">
-        <v>1.023929786080003</v>
+        <v>1.066424396504301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050055691515898</v>
+        <v>1.05092691725153</v>
       </c>
       <c r="J10">
-        <v>1.031659144481034</v>
+        <v>1.058649721402857</v>
       </c>
       <c r="K10">
-        <v>1.039555560277599</v>
+        <v>1.062633203442044</v>
       </c>
       <c r="L10">
-        <v>1.027638479061483</v>
+        <v>1.059670401508755</v>
       </c>
       <c r="M10">
-        <v>1.03788001689186</v>
+        <v>1.069764701652298</v>
       </c>
       <c r="N10">
-        <v>1.011566102884871</v>
+        <v>1.022953489979003</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.998655830801962</v>
+        <v>1.051581523134824</v>
       </c>
       <c r="D11">
-        <v>1.021595663294646</v>
+        <v>1.058561539081429</v>
       </c>
       <c r="E11">
-        <v>1.008986052472997</v>
+        <v>1.05548294991707</v>
       </c>
       <c r="F11">
-        <v>1.019325993598102</v>
+        <v>1.065592824366862</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047854655814978</v>
+        <v>1.050610441069906</v>
       </c>
       <c r="J11">
-        <v>1.028084635896064</v>
+        <v>1.058032912781672</v>
       </c>
       <c r="K11">
-        <v>1.036121493592394</v>
+        <v>1.06204697011391</v>
       </c>
       <c r="L11">
-        <v>1.023740471622714</v>
+        <v>1.058979298455789</v>
       </c>
       <c r="M11">
-        <v>1.033892426582797</v>
+        <v>1.06905358115719</v>
       </c>
       <c r="N11">
-        <v>1.010203456867844</v>
+        <v>1.022728338644489</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9967931357779316</v>
+        <v>1.051266554790579</v>
       </c>
       <c r="D12">
-        <v>1.020071278403488</v>
+        <v>1.058298719825393</v>
       </c>
       <c r="E12">
-        <v>1.007279027158978</v>
+        <v>1.055180931613549</v>
       </c>
       <c r="F12">
-        <v>1.017588712045442</v>
+        <v>1.065283868797759</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047021371700454</v>
+        <v>1.050492570617447</v>
       </c>
       <c r="J12">
-        <v>1.026733838695697</v>
+        <v>1.057803553674781</v>
       </c>
       <c r="K12">
-        <v>1.034823788755816</v>
+        <v>1.061828970894364</v>
       </c>
       <c r="L12">
-        <v>1.022268088678229</v>
+        <v>1.058722393942426</v>
       </c>
       <c r="M12">
-        <v>1.03238652378327</v>
+        <v>1.06878926462798</v>
       </c>
       <c r="N12">
-        <v>1.009688203370479</v>
+        <v>1.02264451655527</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9971941331424313</v>
+        <v>1.051334123943628</v>
       </c>
       <c r="D13">
-        <v>1.020399393636217</v>
+        <v>1.058355101661421</v>
       </c>
       <c r="E13">
-        <v>1.007646447711578</v>
+        <v>1.055245719944856</v>
       </c>
       <c r="F13">
-        <v>1.017962631879536</v>
+        <v>1.065350144157893</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047200843558859</v>
+        <v>1.050517868606705</v>
       </c>
       <c r="J13">
-        <v>1.027024661498616</v>
+        <v>1.057852763292794</v>
       </c>
       <c r="K13">
-        <v>1.035103179789138</v>
+        <v>1.061875743644411</v>
       </c>
       <c r="L13">
-        <v>1.022585058621855</v>
+        <v>1.058777509845712</v>
       </c>
       <c r="M13">
-        <v>1.03271069524476</v>
+        <v>1.06884596937629</v>
       </c>
       <c r="N13">
-        <v>1.009799149396583</v>
+        <v>1.02266250532995</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9985025065610583</v>
+        <v>1.051555491071338</v>
       </c>
       <c r="D14">
-        <v>1.021470163510208</v>
+        <v>1.058539817156723</v>
       </c>
       <c r="E14">
-        <v>1.00884551302912</v>
+        <v>1.055457986959401</v>
       </c>
       <c r="F14">
-        <v>1.019182957295227</v>
+        <v>1.065567287504708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047786103497397</v>
+        <v>1.050600704340264</v>
       </c>
       <c r="J14">
-        <v>1.027973459284635</v>
+        <v>1.058013958981118</v>
       </c>
       <c r="K14">
-        <v>1.036014686231016</v>
+        <v>1.062028955265341</v>
       </c>
       <c r="L14">
-        <v>1.023619274512213</v>
+        <v>1.058958066707138</v>
       </c>
       <c r="M14">
-        <v>1.033768463818104</v>
+        <v>1.069031736252325</v>
       </c>
       <c r="N14">
-        <v>1.010161055309972</v>
+        <v>1.022721413783393</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9993044573352003</v>
+        <v>1.051691861143592</v>
       </c>
       <c r="D15">
-        <v>1.022126625779219</v>
+        <v>1.058653608322733</v>
       </c>
       <c r="E15">
-        <v>1.009580651197147</v>
+        <v>1.055588758905635</v>
       </c>
       <c r="F15">
-        <v>1.019931167797687</v>
+        <v>1.065701066959461</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048144584787456</v>
+        <v>1.050651700098976</v>
       </c>
       <c r="J15">
-        <v>1.028554936125414</v>
+        <v>1.058113243893192</v>
       </c>
       <c r="K15">
-        <v>1.036573311875086</v>
+        <v>1.062123321316793</v>
       </c>
       <c r="L15">
-        <v>1.024253187626449</v>
+        <v>1.059069287409381</v>
       </c>
       <c r="M15">
-        <v>1.034416855493941</v>
+        <v>1.069146170112467</v>
       </c>
       <c r="N15">
-        <v>1.010382811819408</v>
+        <v>1.022757683906774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003910190908728</v>
+        <v>1.052485268451306</v>
       </c>
       <c r="D16">
-        <v>1.025898932584714</v>
+        <v>1.059315647087842</v>
       </c>
       <c r="E16">
-        <v>1.013805415239893</v>
+        <v>1.056349715781071</v>
       </c>
       <c r="F16">
-        <v>1.024231622286939</v>
+        <v>1.06647957520486</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050199622623726</v>
+        <v>1.05094787635679</v>
       </c>
       <c r="J16">
-        <v>1.031893232748271</v>
+        <v>1.05869062221162</v>
       </c>
       <c r="K16">
-        <v>1.039780453176508</v>
+        <v>1.062672075456838</v>
       </c>
       <c r="L16">
-        <v>1.027893844359059</v>
+        <v>1.059716240137031</v>
       </c>
       <c r="M16">
-        <v>1.038141294244927</v>
+        <v>1.069811872044725</v>
       </c>
       <c r="N16">
-        <v>1.011655294546499</v>
+        <v>1.022968405818361</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006746622377883</v>
+        <v>1.052982668668664</v>
       </c>
       <c r="D17">
-        <v>1.028223875579554</v>
+        <v>1.059730686565277</v>
       </c>
       <c r="E17">
-        <v>1.016409559053744</v>
+        <v>1.056826877278096</v>
       </c>
       <c r="F17">
-        <v>1.02688290812411</v>
+        <v>1.066967787014748</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051461845226455</v>
+        <v>1.051133096632916</v>
       </c>
       <c r="J17">
-        <v>1.033947984059927</v>
+        <v>1.059052355922763</v>
       </c>
       <c r="K17">
-        <v>1.041754496186261</v>
+        <v>1.063015858806167</v>
       </c>
       <c r="L17">
-        <v>1.030135859289024</v>
+        <v>1.060121706879841</v>
       </c>
       <c r="M17">
-        <v>1.040435447851937</v>
+        <v>1.070229141234517</v>
       </c>
       <c r="N17">
-        <v>1.012437926677726</v>
+        <v>1.023100247011876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008382840367444</v>
+        <v>1.053272693077699</v>
       </c>
       <c r="D18">
-        <v>1.029565639177122</v>
+        <v>1.059972686487281</v>
       </c>
       <c r="E18">
-        <v>1.017912590475793</v>
+        <v>1.057105138547509</v>
       </c>
       <c r="F18">
-        <v>1.028413320134726</v>
+        <v>1.067252508433853</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052188734810145</v>
+        <v>1.051240930039614</v>
       </c>
       <c r="J18">
-        <v>1.035132852422696</v>
+        <v>1.05926319127879</v>
       </c>
       <c r="K18">
-        <v>1.042892826657755</v>
+        <v>1.063216225678981</v>
       </c>
       <c r="L18">
-        <v>1.031429130240227</v>
+        <v>1.060358083777881</v>
       </c>
       <c r="M18">
-        <v>1.041758986592407</v>
+        <v>1.070472417265112</v>
       </c>
       <c r="N18">
-        <v>1.012889003387824</v>
+        <v>1.023177025849811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008937724389078</v>
+        <v>1.053371566947992</v>
       </c>
       <c r="D19">
-        <v>1.03002076476059</v>
+        <v>1.060055187773504</v>
       </c>
       <c r="E19">
-        <v>1.018422442342856</v>
+        <v>1.057200008551525</v>
       </c>
       <c r="F19">
-        <v>1.028932488741671</v>
+        <v>1.067349583672041</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052435030718902</v>
+        <v>1.051277664157136</v>
       </c>
       <c r="J19">
-        <v>1.03553459671654</v>
+        <v>1.059335054008861</v>
       </c>
       <c r="K19">
-        <v>1.043278791703721</v>
+        <v>1.063284519200602</v>
       </c>
       <c r="L19">
-        <v>1.031867700641615</v>
+        <v>1.060438661084104</v>
       </c>
       <c r="M19">
-        <v>1.042207853678487</v>
+        <v>1.070555349534125</v>
       </c>
       <c r="N19">
-        <v>1.013041906852458</v>
+        <v>1.023203184801536</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006444201315954</v>
+        <v>1.052929312782541</v>
       </c>
       <c r="D20">
-        <v>1.027975926223589</v>
+        <v>1.059686165630631</v>
       </c>
       <c r="E20">
-        <v>1.016131819753048</v>
+        <v>1.056775688489587</v>
       </c>
       <c r="F20">
-        <v>1.026600123091036</v>
+        <v>1.066915411112544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051327394380143</v>
+        <v>1.051113245203114</v>
       </c>
       <c r="J20">
-        <v>1.033728950204744</v>
+        <v>1.059013561662791</v>
       </c>
       <c r="K20">
-        <v>1.041544065386039</v>
+        <v>1.062978990276645</v>
       </c>
       <c r="L20">
-        <v>1.029896820025321</v>
+        <v>1.060078217087892</v>
       </c>
       <c r="M20">
-        <v>1.040190829608179</v>
+        <v>1.070184383603486</v>
       </c>
       <c r="N20">
-        <v>1.012354522337606</v>
+        <v>1.023086114315462</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9981180988674989</v>
+        <v>1.05149030846058</v>
       </c>
       <c r="D21">
-        <v>1.02115553406268</v>
+        <v>1.058485426832721</v>
       </c>
       <c r="E21">
-        <v>1.008493181575539</v>
+        <v>1.055395482280084</v>
       </c>
       <c r="F21">
-        <v>1.018824370866227</v>
+        <v>1.06550334623384</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047614202051087</v>
+        <v>1.050576320048728</v>
       </c>
       <c r="J21">
-        <v>1.027694712855223</v>
+        <v>1.057966497763449</v>
       </c>
       <c r="K21">
-        <v>1.035746894927953</v>
+        <v>1.061983845075487</v>
       </c>
       <c r="L21">
-        <v>1.023315414956319</v>
+        <v>1.058904902704404</v>
       </c>
       <c r="M21">
-        <v>1.033457675499784</v>
+        <v>1.068977037385103</v>
       </c>
       <c r="N21">
-        <v>1.010054739549324</v>
+        <v>1.022704071988364</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9927024810260388</v>
+        <v>1.05058461305844</v>
       </c>
       <c r="D22">
-        <v>1.016725741780978</v>
+        <v>1.057729684593898</v>
       </c>
       <c r="E22">
-        <v>1.00353291838301</v>
+        <v>1.054527137178132</v>
       </c>
       <c r="F22">
-        <v>1.013776744352981</v>
+        <v>1.064615102985034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045188003043089</v>
+        <v>1.050236898362967</v>
       </c>
       <c r="J22">
-        <v>1.023766344947985</v>
+        <v>1.057306725501409</v>
       </c>
       <c r="K22">
-        <v>1.031972984122657</v>
+        <v>1.061356732844065</v>
       </c>
       <c r="L22">
-        <v>1.019034710862044</v>
+        <v>1.05816604587213</v>
       </c>
       <c r="M22">
-        <v>1.029080134051934</v>
+        <v>1.068216918526101</v>
       </c>
       <c r="N22">
-        <v>1.008555743987093</v>
+        <v>1.022462762093199</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9955913813405974</v>
+        <v>1.051064829476028</v>
       </c>
       <c r="D23">
-        <v>1.019088115463062</v>
+        <v>1.058130393672549</v>
       </c>
       <c r="E23">
-        <v>1.006178111545104</v>
+        <v>1.054987517064914</v>
       </c>
       <c r="F23">
-        <v>1.016468365148882</v>
+        <v>1.065086018665127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046483238979047</v>
+        <v>1.050417006775263</v>
       </c>
       <c r="J23">
-        <v>1.025862186202053</v>
+        <v>1.057656620883193</v>
       </c>
       <c r="K23">
-        <v>1.033986403564642</v>
+        <v>1.061689312859987</v>
       </c>
       <c r="L23">
-        <v>1.021318165234201</v>
+        <v>1.058557837670464</v>
       </c>
       <c r="M23">
-        <v>1.031415065645746</v>
+        <v>1.068619968902054</v>
       </c>
       <c r="N23">
-        <v>1.009355634155114</v>
+        <v>1.022590790065852</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006580908521559</v>
+        <v>1.052953422321852</v>
       </c>
       <c r="D24">
-        <v>1.028088008037678</v>
+        <v>1.059706282989005</v>
       </c>
       <c r="E24">
-        <v>1.016257367241692</v>
+        <v>1.056798818681802</v>
       </c>
       <c r="F24">
-        <v>1.026727950888068</v>
+        <v>1.066939077664963</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051388175726361</v>
+        <v>1.051122215835219</v>
       </c>
       <c r="J24">
-        <v>1.033827964184533</v>
+        <v>1.05903109160647</v>
       </c>
       <c r="K24">
-        <v>1.041639190359241</v>
+        <v>1.062995650060517</v>
       </c>
       <c r="L24">
-        <v>1.030004876128737</v>
+        <v>1.060097868638993</v>
       </c>
       <c r="M24">
-        <v>1.040301407055626</v>
+        <v>1.070204607990267</v>
       </c>
       <c r="N24">
-        <v>1.01239222587191</v>
+        <v>1.023092500649283</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018625037890246</v>
+        <v>1.055141092623535</v>
       </c>
       <c r="D25">
-        <v>1.037974271160479</v>
+        <v>1.061531667117504</v>
       </c>
       <c r="E25">
-        <v>1.027334637898426</v>
+        <v>1.058898432373278</v>
       </c>
       <c r="F25">
-        <v>1.038009956824958</v>
+        <v>1.069087724526601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056716399665642</v>
+        <v>1.05193263598572</v>
       </c>
       <c r="J25">
-        <v>1.042541451425418</v>
+        <v>1.060619908363563</v>
       </c>
       <c r="K25">
-        <v>1.050010358624814</v>
+        <v>1.064505465850571</v>
       </c>
       <c r="L25">
-        <v>1.039522936686415</v>
+        <v>1.061880096413079</v>
       </c>
       <c r="M25">
-        <v>1.050045540404204</v>
+        <v>1.07203918787609</v>
       </c>
       <c r="N25">
-        <v>1.015705054383431</v>
+        <v>1.023669929241966</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056882949518213</v>
+        <v>1.027734238954841</v>
       </c>
       <c r="D2">
-        <v>1.062984988745737</v>
+        <v>1.045465868098437</v>
       </c>
       <c r="E2">
-        <v>1.060571346374045</v>
+        <v>1.035734301401726</v>
       </c>
       <c r="F2">
-        <v>1.070800210076821</v>
+        <v>1.046569761779765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05257268618011</v>
+        <v>1.060706296504964</v>
       </c>
       <c r="J2">
-        <v>1.061882265411271</v>
+        <v>1.049115925377561</v>
       </c>
       <c r="K2">
-        <v>1.065704854516345</v>
+        <v>1.056326147347086</v>
       </c>
       <c r="L2">
-        <v>1.063297763419177</v>
+        <v>1.04671727482513</v>
       </c>
       <c r="M2">
-        <v>1.073499082374265</v>
+        <v>1.057416302812354</v>
       </c>
       <c r="N2">
-        <v>1.024126665081736</v>
+        <v>1.018196267857398</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058146015546485</v>
+        <v>1.034091715431016</v>
       </c>
       <c r="D3">
-        <v>1.064038772042396</v>
+        <v>1.050701131876465</v>
       </c>
       <c r="E3">
-        <v>1.061785088383639</v>
+        <v>1.041607911026079</v>
       </c>
       <c r="F3">
-        <v>1.072042952165762</v>
+        <v>1.05255804199215</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053033773554781</v>
+        <v>1.063466895241386</v>
       </c>
       <c r="J3">
-        <v>1.062796071898278</v>
+        <v>1.053694263581914</v>
       </c>
       <c r="K3">
-        <v>1.066572960422947</v>
+        <v>1.060723916836898</v>
       </c>
       <c r="L3">
-        <v>1.064324949209973</v>
+        <v>1.051734713709717</v>
       </c>
       <c r="M3">
-        <v>1.074557201794975</v>
+        <v>1.062559857964679</v>
       </c>
       <c r="N3">
-        <v>1.024456097618107</v>
+        <v>1.019925646736776</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058962553132144</v>
+        <v>1.038095947804061</v>
       </c>
       <c r="D4">
-        <v>1.064719982682444</v>
+        <v>1.054001189811863</v>
       </c>
       <c r="E4">
-        <v>1.062570045358446</v>
+        <v>1.045312268313242</v>
       </c>
       <c r="F4">
-        <v>1.072846797705581</v>
+        <v>1.056335923445338</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053330450835493</v>
+        <v>1.065194242987932</v>
       </c>
       <c r="J4">
-        <v>1.063386098300243</v>
+        <v>1.056572925588917</v>
       </c>
       <c r="K4">
-        <v>1.067133423236317</v>
+        <v>1.063488789592438</v>
       </c>
       <c r="L4">
-        <v>1.064988623400094</v>
+        <v>1.054892923757864</v>
       </c>
       <c r="M4">
-        <v>1.075241018051614</v>
+        <v>1.065798838104165</v>
       </c>
       <c r="N4">
-        <v>1.024668250918759</v>
+        <v>1.021010290510729</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059305649172304</v>
+        <v>1.039754381003339</v>
       </c>
       <c r="D5">
-        <v>1.065006208325222</v>
+        <v>1.055368544974399</v>
       </c>
       <c r="E5">
-        <v>1.062899944524994</v>
+        <v>1.046847626290463</v>
       </c>
       <c r="F5">
-        <v>1.073184667163079</v>
+        <v>1.057902038793049</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053454773765741</v>
+        <v>1.065906879442432</v>
       </c>
       <c r="J5">
-        <v>1.063633844222782</v>
+        <v>1.05776394043178</v>
       </c>
       <c r="K5">
-        <v>1.067368742265766</v>
+        <v>1.064632655796623</v>
       </c>
       <c r="L5">
-        <v>1.065267398958143</v>
+        <v>1.056200432604284</v>
       </c>
       <c r="M5">
-        <v>1.075528291438865</v>
+        <v>1.067140114087469</v>
       </c>
       <c r="N5">
-        <v>1.024757198699166</v>
+        <v>1.021458370598828</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05936324626201</v>
+        <v>1.040031411464934</v>
       </c>
       <c r="D6">
-        <v>1.065054257824256</v>
+        <v>1.055596984434277</v>
       </c>
       <c r="E6">
-        <v>1.06295533045096</v>
+        <v>1.047104162586186</v>
       </c>
       <c r="F6">
-        <v>1.073241393066767</v>
+        <v>1.058163730729857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053475624702616</v>
+        <v>1.066025756068407</v>
       </c>
       <c r="J6">
-        <v>1.063675424257891</v>
+        <v>1.057962817489423</v>
       </c>
       <c r="K6">
-        <v>1.067408235860758</v>
+        <v>1.064823655591979</v>
       </c>
       <c r="L6">
-        <v>1.065314193004077</v>
+        <v>1.056418811136653</v>
       </c>
       <c r="M6">
-        <v>1.075576514071718</v>
+        <v>1.067364151531492</v>
       </c>
       <c r="N6">
-        <v>1.024772119283664</v>
+        <v>1.021533150785974</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058967138287039</v>
+        <v>1.03811820428535</v>
       </c>
       <c r="D7">
-        <v>1.064723807851105</v>
+        <v>1.054019537800881</v>
       </c>
       <c r="E7">
-        <v>1.062574453864064</v>
+        <v>1.045332868717709</v>
       </c>
       <c r="F7">
-        <v>1.07285131259461</v>
+        <v>1.056356935417052</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053332113615463</v>
+        <v>1.065203817750331</v>
       </c>
       <c r="J7">
-        <v>1.06338940987398</v>
+        <v>1.056588914194055</v>
       </c>
       <c r="K7">
-        <v>1.067136568755126</v>
+        <v>1.063504145543616</v>
       </c>
       <c r="L7">
-        <v>1.064992349325526</v>
+        <v>1.05491047291395</v>
       </c>
       <c r="M7">
-        <v>1.075244857407224</v>
+        <v>1.065816839184812</v>
       </c>
       <c r="N7">
-        <v>1.024669440391265</v>
+        <v>1.021016308421293</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057309966019477</v>
+        <v>1.029906236458266</v>
       </c>
       <c r="D8">
-        <v>1.063341257189803</v>
+        <v>1.047253868983109</v>
       </c>
       <c r="E8">
-        <v>1.0609816237616</v>
+        <v>1.037739928504413</v>
       </c>
       <c r="F8">
-        <v>1.071220262562593</v>
+        <v>1.048614288050359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052728860850925</v>
+        <v>1.061651815316059</v>
       </c>
       <c r="J8">
-        <v>1.062191354401369</v>
+        <v>1.050681112310162</v>
       </c>
       <c r="K8">
-        <v>1.065998497049375</v>
+        <v>1.057829652264374</v>
       </c>
       <c r="L8">
-        <v>1.063645110812452</v>
+        <v>1.048431848755482</v>
       </c>
       <c r="M8">
-        <v>1.073856857828595</v>
+        <v>1.059173678413589</v>
       </c>
       <c r="N8">
-        <v>1.024238208229824</v>
+        <v>1.018788042113119</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054383918583716</v>
+        <v>1.014535315064591</v>
       </c>
       <c r="D9">
-        <v>1.060899894072918</v>
+        <v>1.034614745191346</v>
       </c>
       <c r="E9">
-        <v>1.058171553208824</v>
+        <v>1.023569587924626</v>
       </c>
       <c r="F9">
-        <v>1.068343792060776</v>
+        <v>1.034174520776309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051652949551294</v>
+        <v>1.0549133563294</v>
       </c>
       <c r="J9">
-        <v>1.060070418267762</v>
+        <v>1.039585032266052</v>
       </c>
       <c r="K9">
-        <v>1.063983328817272</v>
+        <v>1.047170120852604</v>
       </c>
       <c r="L9">
-        <v>1.061263461292778</v>
+        <v>1.036291498463649</v>
       </c>
       <c r="M9">
-        <v>1.071404348657589</v>
+        <v>1.046736447425177</v>
       </c>
       <c r="N9">
-        <v>1.023470542761449</v>
+        <v>1.014582281411649</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052429043714747</v>
+        <v>1.003587128466545</v>
       </c>
       <c r="D10">
-        <v>1.059268731988833</v>
+        <v>1.025634212355792</v>
       </c>
       <c r="E10">
-        <v>1.056295783883554</v>
+        <v>1.013508922644817</v>
       </c>
       <c r="F10">
-        <v>1.066424396504301</v>
+        <v>1.023929786080004</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05092691725153</v>
+        <v>1.050055691515899</v>
       </c>
       <c r="J10">
-        <v>1.058649721402857</v>
+        <v>1.031659144481035</v>
       </c>
       <c r="K10">
-        <v>1.062633203442044</v>
+        <v>1.0395555602776</v>
       </c>
       <c r="L10">
-        <v>1.059670401508755</v>
+        <v>1.027638479061484</v>
       </c>
       <c r="M10">
-        <v>1.069764701652298</v>
+        <v>1.037880016891862</v>
       </c>
       <c r="N10">
-        <v>1.022953489979003</v>
+        <v>1.011566102884871</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051581523134824</v>
+        <v>0.9986558308019622</v>
       </c>
       <c r="D11">
-        <v>1.058561539081429</v>
+        <v>1.021595663294646</v>
       </c>
       <c r="E11">
-        <v>1.05548294991707</v>
+        <v>1.008986052472998</v>
       </c>
       <c r="F11">
-        <v>1.065592824366862</v>
+        <v>1.019325993598102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050610441069906</v>
+        <v>1.047854655814979</v>
       </c>
       <c r="J11">
-        <v>1.058032912781672</v>
+        <v>1.028084635896064</v>
       </c>
       <c r="K11">
-        <v>1.06204697011391</v>
+        <v>1.036121493592394</v>
       </c>
       <c r="L11">
-        <v>1.058979298455789</v>
+        <v>1.023740471622714</v>
       </c>
       <c r="M11">
-        <v>1.06905358115719</v>
+        <v>1.033892426582797</v>
       </c>
       <c r="N11">
-        <v>1.022728338644489</v>
+        <v>1.010203456867844</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051266554790579</v>
+        <v>0.9967931357779315</v>
       </c>
       <c r="D12">
-        <v>1.058298719825393</v>
+        <v>1.020071278403488</v>
       </c>
       <c r="E12">
-        <v>1.055180931613549</v>
+        <v>1.007279027158978</v>
       </c>
       <c r="F12">
-        <v>1.065283868797759</v>
+        <v>1.017588712045441</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050492570617447</v>
+        <v>1.047021371700454</v>
       </c>
       <c r="J12">
-        <v>1.057803553674781</v>
+        <v>1.026733838695697</v>
       </c>
       <c r="K12">
-        <v>1.061828970894364</v>
+        <v>1.034823788755816</v>
       </c>
       <c r="L12">
-        <v>1.058722393942426</v>
+        <v>1.02226808867823</v>
       </c>
       <c r="M12">
-        <v>1.06878926462798</v>
+        <v>1.03238652378327</v>
       </c>
       <c r="N12">
-        <v>1.02264451655527</v>
+        <v>1.009688203370479</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051334123943628</v>
+        <v>0.997194133142429</v>
       </c>
       <c r="D13">
-        <v>1.058355101661421</v>
+        <v>1.020399393636215</v>
       </c>
       <c r="E13">
-        <v>1.055245719944856</v>
+        <v>1.007646447711576</v>
       </c>
       <c r="F13">
-        <v>1.065350144157893</v>
+        <v>1.017962631879533</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050517868606705</v>
+        <v>1.047200843558857</v>
       </c>
       <c r="J13">
-        <v>1.057852763292794</v>
+        <v>1.027024661498613</v>
       </c>
       <c r="K13">
-        <v>1.061875743644411</v>
+        <v>1.035103179789136</v>
       </c>
       <c r="L13">
-        <v>1.058777509845712</v>
+        <v>1.022585058621852</v>
       </c>
       <c r="M13">
-        <v>1.06884596937629</v>
+        <v>1.032710695244758</v>
       </c>
       <c r="N13">
-        <v>1.02266250532995</v>
+        <v>1.009799149396582</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051555491071338</v>
+        <v>0.9985025065610592</v>
       </c>
       <c r="D14">
-        <v>1.058539817156723</v>
+        <v>1.021470163510209</v>
       </c>
       <c r="E14">
-        <v>1.055457986959401</v>
+        <v>1.008845513029121</v>
       </c>
       <c r="F14">
-        <v>1.065567287504708</v>
+        <v>1.019182957295227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050600704340264</v>
+        <v>1.047786103497398</v>
       </c>
       <c r="J14">
-        <v>1.058013958981118</v>
+        <v>1.027973459284636</v>
       </c>
       <c r="K14">
-        <v>1.062028955265341</v>
+        <v>1.036014686231016</v>
       </c>
       <c r="L14">
-        <v>1.058958066707138</v>
+        <v>1.023619274512214</v>
       </c>
       <c r="M14">
-        <v>1.069031736252325</v>
+        <v>1.033768463818105</v>
       </c>
       <c r="N14">
-        <v>1.022721413783393</v>
+        <v>1.010161055309973</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.051691861143592</v>
+        <v>0.999304457335198</v>
       </c>
       <c r="D15">
-        <v>1.058653608322733</v>
+        <v>1.022126625779217</v>
       </c>
       <c r="E15">
-        <v>1.055588758905635</v>
+        <v>1.009580651197145</v>
       </c>
       <c r="F15">
-        <v>1.065701066959461</v>
+        <v>1.019931167797684</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050651700098976</v>
+        <v>1.048144584787454</v>
       </c>
       <c r="J15">
-        <v>1.058113243893192</v>
+        <v>1.028554936125412</v>
       </c>
       <c r="K15">
-        <v>1.062123321316793</v>
+        <v>1.036573311875084</v>
       </c>
       <c r="L15">
-        <v>1.059069287409381</v>
+        <v>1.024253187626447</v>
       </c>
       <c r="M15">
-        <v>1.069146170112467</v>
+        <v>1.034416855493938</v>
       </c>
       <c r="N15">
-        <v>1.022757683906774</v>
+        <v>1.010382811819407</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.052485268451306</v>
+        <v>1.00391019090873</v>
       </c>
       <c r="D16">
-        <v>1.059315647087842</v>
+        <v>1.025898932584715</v>
       </c>
       <c r="E16">
-        <v>1.056349715781071</v>
+        <v>1.013805415239893</v>
       </c>
       <c r="F16">
-        <v>1.06647957520486</v>
+        <v>1.024231622286941</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05094787635679</v>
+        <v>1.050199622623726</v>
       </c>
       <c r="J16">
-        <v>1.05869062221162</v>
+        <v>1.031893232748272</v>
       </c>
       <c r="K16">
-        <v>1.062672075456838</v>
+        <v>1.03978045317651</v>
       </c>
       <c r="L16">
-        <v>1.059716240137031</v>
+        <v>1.027893844359059</v>
       </c>
       <c r="M16">
-        <v>1.069811872044725</v>
+        <v>1.038141294244928</v>
       </c>
       <c r="N16">
-        <v>1.022968405818361</v>
+        <v>1.0116552945465</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052982668668664</v>
+        <v>1.006746622377883</v>
       </c>
       <c r="D17">
-        <v>1.059730686565277</v>
+        <v>1.028223875579554</v>
       </c>
       <c r="E17">
-        <v>1.056826877278096</v>
+        <v>1.016409559053743</v>
       </c>
       <c r="F17">
-        <v>1.066967787014748</v>
+        <v>1.02688290812411</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051133096632916</v>
+        <v>1.051461845226455</v>
       </c>
       <c r="J17">
-        <v>1.059052355922763</v>
+        <v>1.033947984059926</v>
       </c>
       <c r="K17">
-        <v>1.063015858806167</v>
+        <v>1.041754496186261</v>
       </c>
       <c r="L17">
-        <v>1.060121706879841</v>
+        <v>1.030135859289023</v>
       </c>
       <c r="M17">
-        <v>1.070229141234517</v>
+        <v>1.040435447851937</v>
       </c>
       <c r="N17">
-        <v>1.023100247011876</v>
+        <v>1.012437926677726</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053272693077699</v>
+        <v>1.008382840367442</v>
       </c>
       <c r="D18">
-        <v>1.059972686487281</v>
+        <v>1.02956563917712</v>
       </c>
       <c r="E18">
-        <v>1.057105138547509</v>
+        <v>1.01791259047579</v>
       </c>
       <c r="F18">
-        <v>1.067252508433853</v>
+        <v>1.028413320134723</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051240930039614</v>
+        <v>1.052188734810144</v>
       </c>
       <c r="J18">
-        <v>1.05926319127879</v>
+        <v>1.035132852422693</v>
       </c>
       <c r="K18">
-        <v>1.063216225678981</v>
+        <v>1.042892826657753</v>
       </c>
       <c r="L18">
-        <v>1.060358083777881</v>
+        <v>1.031429130240225</v>
       </c>
       <c r="M18">
-        <v>1.070472417265112</v>
+        <v>1.041758986592404</v>
       </c>
       <c r="N18">
-        <v>1.023177025849811</v>
+        <v>1.012889003387823</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053371566947992</v>
+        <v>1.008937724389079</v>
       </c>
       <c r="D19">
-        <v>1.060055187773504</v>
+        <v>1.030020764760591</v>
       </c>
       <c r="E19">
-        <v>1.057200008551525</v>
+        <v>1.018422442342857</v>
       </c>
       <c r="F19">
-        <v>1.067349583672041</v>
+        <v>1.028932488741672</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051277664157136</v>
+        <v>1.052435030718903</v>
       </c>
       <c r="J19">
-        <v>1.059335054008861</v>
+        <v>1.035534596716541</v>
       </c>
       <c r="K19">
-        <v>1.063284519200602</v>
+        <v>1.043278791703723</v>
       </c>
       <c r="L19">
-        <v>1.060438661084104</v>
+        <v>1.031867700641616</v>
       </c>
       <c r="M19">
-        <v>1.070555349534125</v>
+        <v>1.042207853678488</v>
       </c>
       <c r="N19">
-        <v>1.023203184801536</v>
+        <v>1.013041906852459</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052929312782541</v>
+        <v>1.006444201315953</v>
       </c>
       <c r="D20">
-        <v>1.059686165630631</v>
+        <v>1.027975926223588</v>
       </c>
       <c r="E20">
-        <v>1.056775688489587</v>
+        <v>1.016131819753048</v>
       </c>
       <c r="F20">
-        <v>1.066915411112544</v>
+        <v>1.026600123091035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051113245203114</v>
+        <v>1.051327394380142</v>
       </c>
       <c r="J20">
-        <v>1.059013561662791</v>
+        <v>1.033728950204743</v>
       </c>
       <c r="K20">
-        <v>1.062978990276645</v>
+        <v>1.041544065386038</v>
       </c>
       <c r="L20">
-        <v>1.060078217087892</v>
+        <v>1.02989682002532</v>
       </c>
       <c r="M20">
-        <v>1.070184383603486</v>
+        <v>1.040190829608178</v>
       </c>
       <c r="N20">
-        <v>1.023086114315462</v>
+        <v>1.012354522337606</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05149030846058</v>
+        <v>0.9981180988674995</v>
       </c>
       <c r="D21">
-        <v>1.058485426832721</v>
+        <v>1.02115553406268</v>
       </c>
       <c r="E21">
-        <v>1.055395482280084</v>
+        <v>1.00849318157554</v>
       </c>
       <c r="F21">
-        <v>1.06550334623384</v>
+        <v>1.018824370866227</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050576320048728</v>
+        <v>1.047614202051087</v>
       </c>
       <c r="J21">
-        <v>1.057966497763449</v>
+        <v>1.027694712855223</v>
       </c>
       <c r="K21">
-        <v>1.061983845075487</v>
+        <v>1.035746894927953</v>
       </c>
       <c r="L21">
-        <v>1.058904902704404</v>
+        <v>1.023315414956319</v>
       </c>
       <c r="M21">
-        <v>1.068977037385103</v>
+        <v>1.033457675499784</v>
       </c>
       <c r="N21">
-        <v>1.022704071988364</v>
+        <v>1.010054739549324</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05058461305844</v>
+        <v>0.9927024810260378</v>
       </c>
       <c r="D22">
-        <v>1.057729684593898</v>
+        <v>1.016725741780977</v>
       </c>
       <c r="E22">
-        <v>1.054527137178132</v>
+        <v>1.003532918383008</v>
       </c>
       <c r="F22">
-        <v>1.064615102985034</v>
+        <v>1.013776744352981</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050236898362967</v>
+        <v>1.045188003043089</v>
       </c>
       <c r="J22">
-        <v>1.057306725501409</v>
+        <v>1.023766344947984</v>
       </c>
       <c r="K22">
-        <v>1.061356732844065</v>
+        <v>1.031972984122656</v>
       </c>
       <c r="L22">
-        <v>1.05816604587213</v>
+        <v>1.019034710862043</v>
       </c>
       <c r="M22">
-        <v>1.068216918526101</v>
+        <v>1.029080134051933</v>
       </c>
       <c r="N22">
-        <v>1.022462762093199</v>
+        <v>1.008555743987093</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051064829476028</v>
+        <v>0.9955913813405969</v>
       </c>
       <c r="D23">
-        <v>1.058130393672549</v>
+        <v>1.019088115463061</v>
       </c>
       <c r="E23">
-        <v>1.054987517064914</v>
+        <v>1.006178111545103</v>
       </c>
       <c r="F23">
-        <v>1.065086018665127</v>
+        <v>1.016468365148882</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050417006775263</v>
+        <v>1.046483238979047</v>
       </c>
       <c r="J23">
-        <v>1.057656620883193</v>
+        <v>1.025862186202053</v>
       </c>
       <c r="K23">
-        <v>1.061689312859987</v>
+        <v>1.033986403564641</v>
       </c>
       <c r="L23">
-        <v>1.058557837670464</v>
+        <v>1.0213181652342</v>
       </c>
       <c r="M23">
-        <v>1.068619968902054</v>
+        <v>1.031415065645746</v>
       </c>
       <c r="N23">
-        <v>1.022590790065852</v>
+        <v>1.009355634155114</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052953422321852</v>
+        <v>1.006580908521559</v>
       </c>
       <c r="D24">
-        <v>1.059706282989005</v>
+        <v>1.028088008037678</v>
       </c>
       <c r="E24">
-        <v>1.056798818681802</v>
+        <v>1.016257367241692</v>
       </c>
       <c r="F24">
-        <v>1.066939077664963</v>
+        <v>1.026727950888069</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051122215835219</v>
+        <v>1.051388175726361</v>
       </c>
       <c r="J24">
-        <v>1.05903109160647</v>
+        <v>1.033827964184533</v>
       </c>
       <c r="K24">
-        <v>1.062995650060517</v>
+        <v>1.041639190359241</v>
       </c>
       <c r="L24">
-        <v>1.060097868638993</v>
+        <v>1.030004876128737</v>
       </c>
       <c r="M24">
-        <v>1.070204607990267</v>
+        <v>1.040301407055626</v>
       </c>
       <c r="N24">
-        <v>1.023092500649283</v>
+        <v>1.01239222587191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055141092623535</v>
+        <v>1.018625037890247</v>
       </c>
       <c r="D25">
-        <v>1.061531667117504</v>
+        <v>1.037974271160479</v>
       </c>
       <c r="E25">
-        <v>1.058898432373278</v>
+        <v>1.027334637898427</v>
       </c>
       <c r="F25">
-        <v>1.069087724526601</v>
+        <v>1.038009956824958</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05193263598572</v>
+        <v>1.056716399665642</v>
       </c>
       <c r="J25">
-        <v>1.060619908363563</v>
+        <v>1.042541451425418</v>
       </c>
       <c r="K25">
-        <v>1.064505465850571</v>
+        <v>1.050010358624814</v>
       </c>
       <c r="L25">
-        <v>1.061880096413079</v>
+        <v>1.039522936686416</v>
       </c>
       <c r="M25">
-        <v>1.07203918787609</v>
+        <v>1.050045540404205</v>
       </c>
       <c r="N25">
-        <v>1.023669929241966</v>
+        <v>1.015705054383431</v>
       </c>
     </row>
   </sheetData>
